--- a/docs/Logboek-mc-dev-ctf .xlsx
+++ b/docs/Logboek-mc-dev-ctf .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educurio-my.sharepoint.com/personal/dmb0070_edu_curio_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA3EC74-69FB-449B-89E1-5F13C2C753C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C011C-992A-4D15-9221-D1CA6F78A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Logboek</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">kit code opnieuw gemaakt </t>
+  </si>
+  <si>
+    <t>Basic game loop gemaakt</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -693,19 +696,19 @@
   <dimension ref="B2:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -715,7 +718,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="2:7" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -729,7 +732,7 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>45913</v>
       </c>
@@ -769,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -789,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>45928</v>
       </c>
@@ -809,7 +812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>45933</v>
       </c>
@@ -829,7 +832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -845,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>45967</v>
       </c>
@@ -861,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>45967</v>
       </c>
@@ -877,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>45972</v>
       </c>
@@ -893,7 +896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>45975</v>
       </c>
@@ -909,7 +912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
@@ -921,7 +924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
@@ -933,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
@@ -945,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
@@ -957,7 +960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -969,7 +972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
@@ -981,7 +984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -993,7 +996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
@@ -1005,7 +1008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
@@ -1017,15 +1020,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="7">
+        <v>46001</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
@@ -1033,7 +1040,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
@@ -1041,7 +1048,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
@@ -1049,7 +1056,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
@@ -1057,7 +1064,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
@@ -1065,7 +1072,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
@@ -1073,7 +1080,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
@@ -1081,7 +1088,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
@@ -1089,7 +1096,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
@@ -1097,7 +1104,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
@@ -1105,7 +1112,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
@@ -1113,7 +1120,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
@@ -1121,7 +1128,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
@@ -1129,7 +1136,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="3"/>
       <c r="D37" s="5"/>
@@ -1137,7 +1144,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
@@ -1145,7 +1152,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -1153,7 +1160,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
@@ -1161,7 +1168,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
@@ -1169,7 +1176,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
@@ -1177,7 +1184,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
       <c r="D43" s="5"/>
@@ -1185,7 +1192,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -1193,7 +1200,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="3"/>
       <c r="D45" s="5"/>
@@ -1201,7 +1208,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -1209,7 +1216,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
       <c r="D47" s="5"/>
@@ -1217,7 +1224,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
@@ -1225,7 +1232,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
       <c r="D49" s="5"/>
@@ -1233,7 +1240,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
@@ -1241,7 +1248,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="3"/>
       <c r="D51" s="5"/>
@@ -1249,7 +1256,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
@@ -1257,7 +1264,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
       <c r="D53" s="5"/>
@@ -1265,7 +1272,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
@@ -1273,7 +1280,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="3"/>
       <c r="D55" s="5"/>
@@ -1281,7 +1288,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="6"/>
@@ -1289,7 +1296,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="3"/>
       <c r="D57" s="5"/>
@@ -1297,7 +1304,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="6"/>
@@ -1305,7 +1312,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="3"/>
       <c r="D59" s="5"/>
@@ -1313,7 +1320,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6"/>
@@ -1321,7 +1328,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
@@ -1329,7 +1336,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="6"/>
@@ -1337,7 +1344,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
@@ -1345,7 +1352,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="6"/>
@@ -1353,7 +1360,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="3"/>
       <c r="D65" s="5"/>
@@ -1361,7 +1368,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="6"/>
@@ -1369,7 +1376,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="3"/>
       <c r="D67" s="5"/>
@@ -1377,7 +1384,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="6"/>
@@ -1385,7 +1392,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="3"/>
       <c r="D69" s="5"/>
@@ -1393,7 +1400,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
       <c r="D70" s="6"/>
@@ -1401,7 +1408,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="3"/>
       <c r="D71" s="5"/>
@@ -1409,7 +1416,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
       <c r="D72" s="6"/>
@@ -1417,7 +1424,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="3"/>
       <c r="D73" s="5"/>
@@ -1425,7 +1432,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
       <c r="D74" s="6"/>
@@ -1433,7 +1440,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="3"/>
       <c r="D75" s="5"/>
@@ -1441,7 +1448,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="4"/>
       <c r="D76" s="6"/>
@@ -1449,7 +1456,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="3"/>
       <c r="D77" s="5"/>
@@ -1457,7 +1464,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="6"/>
@@ -1465,7 +1472,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="3"/>
       <c r="D79" s="5"/>
@@ -1473,7 +1480,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="4"/>
       <c r="D80" s="6"/>
@@ -1481,7 +1488,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="3"/>
       <c r="D81" s="5"/>
@@ -1489,7 +1496,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
       <c r="D82" s="6"/>
@@ -1497,7 +1504,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="3"/>
       <c r="D83" s="5"/>
@@ -1505,7 +1512,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
       <c r="D84" s="6"/>
@@ -1513,7 +1520,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="3"/>
       <c r="D85" s="5"/>
@@ -1521,7 +1528,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="6"/>
@@ -1529,7 +1536,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="3"/>
       <c r="D87" s="5"/>
@@ -1537,7 +1544,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
       <c r="D88" s="6"/>
@@ -1545,7 +1552,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="3"/>
       <c r="D89" s="5"/>
@@ -1553,7 +1560,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
       <c r="D90" s="6"/>
@@ -1561,7 +1568,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="3"/>
       <c r="D91" s="5"/>
@@ -1569,7 +1576,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>
@@ -1577,7 +1584,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="3"/>
       <c r="D93" s="5"/>
@@ -1585,7 +1592,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="4"/>
       <c r="D94" s="6"/>
@@ -1593,7 +1600,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="3"/>
       <c r="D95" s="5"/>
@@ -1601,7 +1608,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
       <c r="D96" s="6"/>
@@ -1609,7 +1616,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="3"/>
       <c r="D97" s="5"/>
@@ -1617,7 +1624,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
       <c r="D98" s="6"/>
@@ -1625,7 +1632,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="3"/>
       <c r="D99" s="5"/>
@@ -1633,7 +1640,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="6"/>

--- a/docs/Logboek-mc-dev-ctf .xlsx
+++ b/docs/Logboek-mc-dev-ctf .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C011C-992A-4D15-9221-D1CA6F78A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE016C3-3AB9-4907-91EB-A165B635AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Logboek</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Basic game loop gemaakt</t>
+  </si>
+  <si>
+    <t>Laatste quick en value of live fixes gedaan</t>
+  </si>
+  <si>
+    <t>Gui framework gefixt</t>
   </si>
 </sst>
 </file>
@@ -696,7 +702,7 @@
   <dimension ref="B2:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,16 +1043,24 @@
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="9">
+        <v>46002</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="7">
+        <v>46003</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>

--- a/docs/Logboek-mc-dev-ctf .xlsx
+++ b/docs/Logboek-mc-dev-ctf .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE016C3-3AB9-4907-91EB-A165B635AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA549103-6E88-46D2-BF12-43AC21B5D74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Logboek</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Gui framework gefixt</t>
+  </si>
+  <si>
+    <t>Optimized imports en test commands verwijderd</t>
   </si>
 </sst>
 </file>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96CFA3F-862B-4C93-909D-A6D483ADEB44}">
   <dimension ref="B2:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,8 +1070,12 @@
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="9">
+        <v>46005</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>

--- a/docs/Logboek-mc-dev-ctf .xlsx
+++ b/docs/Logboek-mc-dev-ctf .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA549103-6E88-46D2-BF12-43AC21B5D74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D2FB3A-D4D3-4DBB-AB2D-38D1F39BE2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Logboek</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>Optimized imports en test commands verwijderd</t>
+  </si>
+  <si>
+    <t>Geholpen aan de laatste bugs en meerdere test gedaan</t>
+  </si>
+  <si>
+    <t>De helft van het mod document gemaakt</t>
+  </si>
+  <si>
+    <t>mod document afgemaakt</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,19 +714,19 @@
   <dimension ref="B2:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="2" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -727,7 +736,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -741,7 +750,7 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>45913</v>
       </c>
@@ -781,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -801,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>45928</v>
       </c>
@@ -821,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>45933</v>
       </c>
@@ -841,15 +850,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="7">
+        <v>46003</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="7">
         <v>45918</v>
       </c>
@@ -857,15 +870,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>45967</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="9">
+        <v>46012</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F10" s="9">
         <v>45924</v>
       </c>
@@ -873,15 +890,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>45967</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="7">
+        <v>46024</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F11" s="7">
         <v>45929</v>
       </c>
@@ -889,7 +910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>45972</v>
       </c>
@@ -905,7 +926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>45975</v>
       </c>
@@ -921,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
@@ -933,7 +954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
@@ -945,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
@@ -957,7 +978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
@@ -969,7 +990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -981,7 +1002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
@@ -993,7 +1014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -1005,7 +1026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
@@ -1017,7 +1038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
@@ -1029,7 +1050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
@@ -1041,7 +1062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
@@ -1053,7 +1074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
@@ -1065,7 +1086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
@@ -1077,7 +1098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
@@ -1085,7 +1106,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
@@ -1093,7 +1114,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
@@ -1101,7 +1122,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
@@ -1109,7 +1130,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
@@ -1117,7 +1138,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
@@ -1125,7 +1146,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
@@ -1133,7 +1154,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
@@ -1141,7 +1162,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
@@ -1149,7 +1170,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
@@ -1157,7 +1178,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="3"/>
       <c r="D37" s="5"/>
@@ -1165,7 +1186,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
@@ -1173,7 +1194,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -1181,7 +1202,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
@@ -1189,7 +1210,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
@@ -1197,7 +1218,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
@@ -1205,7 +1226,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
       <c r="D43" s="5"/>
@@ -1213,7 +1234,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -1221,7 +1242,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="C45" s="3"/>
       <c r="D45" s="5"/>
@@ -1229,7 +1250,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -1237,7 +1258,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
       <c r="D47" s="5"/>
@@ -1245,7 +1266,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
@@ -1253,7 +1274,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
       <c r="D49" s="5"/>
@@ -1261,7 +1282,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
@@ -1269,7 +1290,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="C51" s="3"/>
       <c r="D51" s="5"/>
@@ -1277,7 +1298,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
@@ -1285,7 +1306,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
       <c r="D53" s="5"/>
@@ -1293,7 +1314,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
@@ -1301,7 +1322,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="C55" s="3"/>
       <c r="D55" s="5"/>
@@ -1309,7 +1330,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="6"/>
@@ -1317,7 +1338,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="3"/>
       <c r="D57" s="5"/>
@@ -1325,7 +1346,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="6"/>
@@ -1333,7 +1354,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="C59" s="3"/>
       <c r="D59" s="5"/>
@@ -1341,7 +1362,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6"/>
@@ -1349,7 +1370,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
@@ -1357,7 +1378,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="6"/>
@@ -1365,7 +1386,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
@@ -1373,7 +1394,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="6"/>
@@ -1381,7 +1402,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
       <c r="C65" s="3"/>
       <c r="D65" s="5"/>
@@ -1389,7 +1410,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="6"/>
@@ -1397,7 +1418,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="3"/>
       <c r="D67" s="5"/>
@@ -1405,7 +1426,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="6"/>
@@ -1413,7 +1434,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="3"/>
       <c r="D69" s="5"/>
@@ -1421,7 +1442,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
       <c r="D70" s="6"/>
@@ -1429,7 +1450,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="3"/>
       <c r="D71" s="5"/>
@@ -1437,7 +1458,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
       <c r="D72" s="6"/>
@@ -1445,7 +1466,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="3"/>
       <c r="D73" s="5"/>
@@ -1453,7 +1474,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
       <c r="D74" s="6"/>
@@ -1461,7 +1482,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="3"/>
       <c r="D75" s="5"/>
@@ -1469,7 +1490,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
       <c r="C76" s="4"/>
       <c r="D76" s="6"/>
@@ -1477,7 +1498,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="3"/>
       <c r="D77" s="5"/>
@@ -1485,7 +1506,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="6"/>
@@ -1493,7 +1514,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="3"/>
       <c r="D79" s="5"/>
@@ -1501,7 +1522,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="4"/>
       <c r="D80" s="6"/>
@@ -1509,7 +1530,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="3"/>
       <c r="D81" s="5"/>
@@ -1517,7 +1538,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
       <c r="D82" s="6"/>
@@ -1525,7 +1546,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="3"/>
       <c r="D83" s="5"/>
@@ -1533,7 +1554,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
       <c r="D84" s="6"/>
@@ -1541,7 +1562,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="3"/>
       <c r="D85" s="5"/>
@@ -1549,7 +1570,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="6"/>
@@ -1557,7 +1578,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="3"/>
       <c r="D87" s="5"/>
@@ -1565,7 +1586,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
       <c r="D88" s="6"/>
@@ -1573,7 +1594,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="3"/>
       <c r="D89" s="5"/>
@@ -1581,7 +1602,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
       <c r="D90" s="6"/>
@@ -1589,7 +1610,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="3"/>
       <c r="D91" s="5"/>
@@ -1597,7 +1618,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>
@@ -1605,7 +1626,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="3"/>
       <c r="D93" s="5"/>
@@ -1613,7 +1634,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="6"/>
       <c r="C94" s="4"/>
       <c r="D94" s="6"/>
@@ -1621,7 +1642,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="3"/>
       <c r="D95" s="5"/>
@@ -1629,7 +1650,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
       <c r="D96" s="6"/>
@@ -1637,7 +1658,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="3"/>
       <c r="D97" s="5"/>
@@ -1645,7 +1666,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
       <c r="D98" s="6"/>
@@ -1653,7 +1674,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="3"/>
       <c r="D99" s="5"/>
@@ -1661,7 +1682,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="6"/>
